--- a/4. cosine similarity (sequence)/result.xlsx
+++ b/4. cosine similarity (sequence)/result.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waffi Fatur Rahman\Dropbox\TA WAFFI\program\4. cosine similarity (sequence)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Answer Key</t>
   </si>
@@ -59,25 +64,30 @@
   </si>
   <si>
     <t>and member functions. Data members (attributes)</t>
+  </si>
+  <si>
+    <t>1. A location in memory that can store a value. 2. The block inside a do while statement will execute at least once. 3. Data members (attributes) and member functions.</t>
+  </si>
+  <si>
+    <t>1. The block inside a do while statement will execute at least once. 2. A location in memory that can store a value. 3. Data members (attributes) and member functions.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,18 +103,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -394,24 +413,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="45.7109375"/>
-    <col customWidth="1" max="2" min="2" style="1" width="36.5703125"/>
+    <col min="1" max="1" width="45.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,92 +443,109 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="60" r="3" spans="1:5">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="4" spans="1:5">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="5" spans="1:5">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="6" spans="1:5">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9999999999999997</v>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>